--- a/ExcelPln2/Input/Test17102016/BAT__test.xlsx
+++ b/ExcelPln2/Input/Test17102016/BAT__test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
   <si>
     <t>PLANOGRAM</t>
   </si>
@@ -38,6 +38,198 @@
   </si>
   <si>
     <t>BAT</t>
+  </si>
+  <si>
+    <t>2 x Vogue Bleue Clic 812</t>
+  </si>
+  <si>
+    <t>2 x Vogue Lilas Clic 15157</t>
+  </si>
+  <si>
+    <t>2 x Vogue Menthe Clic
+490</t>
+  </si>
+  <si>
+    <t>2 x Vogue M. Eclat Clic
+15158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOGUE La CIGARETTE BLEUE 1116 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOGUE La CIGARETTE LILAS 1118 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOGUE La CIGARETTE MENTHE 1117 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOGUE La CIGARETTE M. ECLAT 1119 </t>
+  </si>
+  <si>
+    <t>Lucky Strike Flow
+6812</t>
+  </si>
+  <si>
+    <t>Lucky Strike 22 Red 809</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lucky Strike 22 Blue 810</t>
+  </si>
+  <si>
+    <t>Lucky Strike BD Red 25729</t>
+  </si>
+  <si>
+    <t>Lucky Strike Red Zone 28166</t>
+  </si>
+  <si>
+    <t>LUCKY STRIKE COLD 1729</t>
+  </si>
+  <si>
+    <t>Pall Mall SSlim Blue
+17620</t>
+  </si>
+  <si>
+    <t>Pall Mall SSlim Menthol 17622</t>
+  </si>
+  <si>
+    <t>Pall Mall SS Menthol Smooth 
+ 23796</t>
+  </si>
+  <si>
+    <t>Pall Mall SS Violet Sensation
+816</t>
+  </si>
+  <si>
+    <t>2538 PALL MALL RED POCKET</t>
+  </si>
+  <si>
+    <t>Pall Mall Red 
+797</t>
+  </si>
+  <si>
+    <t>Pall Mall Blue
+798</t>
+  </si>
+  <si>
+    <t>Pall Mall Silver
+12342</t>
+  </si>
+  <si>
+    <t>Pall Mall Green
+16442</t>
+  </si>
+  <si>
+    <t>Pall Mall Crush
+790</t>
+  </si>
+  <si>
+    <t>Cristal Menthol Balance
+ 3565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucky Strike BD Blue 25730 </t>
+  </si>
+  <si>
+    <t>2539 PALL MALL BLUE POCKET</t>
+  </si>
+  <si>
+    <t>Pall Mall Crisp
+821</t>
+  </si>
+  <si>
+    <t>Cristal Menthol Silver
+ 6819</t>
+  </si>
+  <si>
+    <t>Viceroy 100 Red 24461</t>
+  </si>
+  <si>
+    <t>Viceroy KS Red
+19053</t>
+  </si>
+  <si>
+    <t>Viceroy 23 Red  25277</t>
+  </si>
+  <si>
+    <t>Viceroy 100 Blue 24462</t>
+  </si>
+  <si>
+    <t>Viceroy KS Blue
+ 19054</t>
+  </si>
+  <si>
+    <t>Viceroy 23 Blue 25278</t>
+  </si>
+  <si>
+    <t>Viceroy KS Silver Filter
+19420</t>
+  </si>
+  <si>
+    <t>Viceroy KS Menthol
+19421</t>
+  </si>
+  <si>
+    <t>Viceroy KS Switch 25529</t>
+  </si>
+  <si>
+    <t>Viceroy 24 Red Sline 19469</t>
+  </si>
+  <si>
+    <t>Viceroy S-Line 40 Red 19518</t>
+  </si>
+  <si>
+    <t>Viceroy S-Line 20 Blue 12353</t>
+  </si>
+  <si>
+    <t>Viceroy 24 Blue Sline 19470</t>
+  </si>
+  <si>
+    <t>Viceroy S-Line 40 Blue 19519</t>
+  </si>
+  <si>
+    <t>Viceroy S-Line 20 Silver 19625</t>
+  </si>
+  <si>
+    <t>Viceroy S-Line 40 Silver 19520</t>
+  </si>
+  <si>
+    <t>Viceroy 24 Menthol Sline 19471</t>
+  </si>
+  <si>
+    <t>Nevada SSlim Blue
+28947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nevada Sslim Menthol
+28946  </t>
+  </si>
+  <si>
+    <t>Nevada Original 
+19472</t>
+  </si>
+  <si>
+    <t>Nevada Blue
+19473</t>
+  </si>
+  <si>
+    <t>Nevada Menthol
+19474</t>
+  </si>
+  <si>
+    <t>Prince Rich Taste
+ 3594</t>
+  </si>
+  <si>
+    <t>JIII Sobieski Czerwony 
+792</t>
+  </si>
+  <si>
+    <t>JIII Sobieski Niebieski
+793</t>
+  </si>
+  <si>
+    <t>JIII Sobieski Błękitny
+794</t>
   </si>
 </sst>
 </file>
@@ -171,7 +363,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -246,6 +438,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -264,7 +467,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -298,9 +501,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -309,22 +509,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -338,22 +526,31 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -393,6 +590,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="=D:\WINNT\SYSTEM32\COMMAND.COM" xfId="4"/>
@@ -420,6 +620,6217 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1133475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13430789" y="818970"/>
+          <a:ext cx="571500" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1209675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 71"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="486134" y="8015917"/>
+          <a:ext cx="542925" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 72"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1294681" y="8015917"/>
+          <a:ext cx="551372" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>267599</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>573117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>62900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1468467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 73"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4552052" y="8279380"/>
+          <a:ext cx="542925" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1114425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15047523" y="847545"/>
+          <a:ext cx="542925" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1123950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 111"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14261621" y="838020"/>
+          <a:ext cx="561975" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1133475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13430789" y="3148102"/>
+          <a:ext cx="571500" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1104900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17479274" y="990420"/>
+          <a:ext cx="552450" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>971550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 59"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14356871" y="5719493"/>
+          <a:ext cx="390525" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>962025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 62"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16734167" y="5681393"/>
+          <a:ext cx="466725" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>990600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 65"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15418998" y="5633768"/>
+          <a:ext cx="640332" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 61"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12652974" y="5652818"/>
+          <a:ext cx="476250" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>981075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 64"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13430789" y="5624243"/>
+          <a:ext cx="647700" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 66"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17479274" y="5595668"/>
+          <a:ext cx="571500" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 67"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18221145" y="5595668"/>
+          <a:ext cx="571500" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1143000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 68"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19041553" y="5700443"/>
+          <a:ext cx="571500" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1123950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 69"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19826557" y="5700443"/>
+          <a:ext cx="561975" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1143000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 70"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20637440" y="5719493"/>
+          <a:ext cx="552450" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1276350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 46"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8407879" y="5786168"/>
+          <a:ext cx="561975" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1276350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 302"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3510412" y="5633768"/>
+          <a:ext cx="609600" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="A6A6A6"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1276350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 300"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2635550" y="5814743"/>
+          <a:ext cx="657225" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="A6A6A6"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1276350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 315"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5775565" y="5757593"/>
+          <a:ext cx="666750" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="A6A6A6"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1276350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 298"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1922253" y="5776643"/>
+          <a:ext cx="590550" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="A6A6A6"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1276350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 321"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7494917" y="5767118"/>
+          <a:ext cx="638175" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="A6A6A6"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1276350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 58"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6650427" y="5748068"/>
+          <a:ext cx="600075" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="A6A6A6"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1276350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 301"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4339446" y="5757593"/>
+          <a:ext cx="646622" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="A6A6A6"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1276350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 301"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5071793" y="5757593"/>
+          <a:ext cx="600075" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="A6A6A6"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1133475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18240195" y="1018995"/>
+          <a:ext cx="552450" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1152525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19041553" y="1038045"/>
+          <a:ext cx="552450" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1152525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19845607" y="1038045"/>
+          <a:ext cx="542925" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1123950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 111"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14261621" y="3167152"/>
+          <a:ext cx="561975" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1276350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 299"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="419459" y="5652818"/>
+          <a:ext cx="619125" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="A6A6A6"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1276350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 298"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1180381" y="5776643"/>
+          <a:ext cx="590550" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="A6A6A6"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1123950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9113987" y="3281452"/>
+          <a:ext cx="695325" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1181100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9934395" y="3319552"/>
+          <a:ext cx="714375" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1152525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10991311" y="933270"/>
+          <a:ext cx="609600" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>981075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 60"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9199712" y="5681393"/>
+          <a:ext cx="476250" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1019175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 104"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9934395" y="5662343"/>
+          <a:ext cx="647700" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>923925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 58"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11124661" y="5671868"/>
+          <a:ext cx="390525" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 61"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11833465" y="5652818"/>
+          <a:ext cx="476250" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1181100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Obraz 95"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11785840" y="914220"/>
+          <a:ext cx="609600" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Obraz 94"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12557724" y="942795"/>
+          <a:ext cx="666750" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1104900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17479274" y="3319552"/>
+          <a:ext cx="552450" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1133475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18240195" y="3348127"/>
+          <a:ext cx="552450" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1152525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19041553" y="3367177"/>
+          <a:ext cx="552450" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1152525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19845607" y="3367177"/>
+          <a:ext cx="542925" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1114425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15047523" y="3176677"/>
+          <a:ext cx="542925" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1219200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10972261" y="3233827"/>
+          <a:ext cx="657225" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1123950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9113987" y="952320"/>
+          <a:ext cx="695325" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1181100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9934395" y="990420"/>
+          <a:ext cx="714375" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1152525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 74"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="21418850" y="971370"/>
+          <a:ext cx="590550" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1152525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 75"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="21466475" y="3300502"/>
+          <a:ext cx="523875" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1162050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 76"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="21428375" y="5614718"/>
+          <a:ext cx="552450" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1276350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 102"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20608865" y="1038045"/>
+          <a:ext cx="619125" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1257300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 109"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20589815" y="3348127"/>
+          <a:ext cx="628650" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1123950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Obraz 274"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16734167" y="3348127"/>
+          <a:ext cx="476250" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1057275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Obraz 276"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16705592" y="1028520"/>
+          <a:ext cx="485775" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1190625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 185" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Bleue Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="476609" y="847545"/>
+          <a:ext cx="266700" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1162050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 186" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Lilas Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1218481" y="818970"/>
+          <a:ext cx="266700" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1162050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Picture 187" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Lilas Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1523281" y="818970"/>
+          <a:ext cx="247650" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1190625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 188" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Bleue Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="762359" y="847545"/>
+          <a:ext cx="266700" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1190625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Picture 227" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Bleue Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="476609" y="3176677"/>
+          <a:ext cx="266700" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1162050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Picture 228" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Lilas Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1218481" y="3148102"/>
+          <a:ext cx="266700" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1162050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Picture 229" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Lilas Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1523281" y="3148102"/>
+          <a:ext cx="247650" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1190625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Picture 230" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Bleue Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="762359" y="3176677"/>
+          <a:ext cx="266700" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1143000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 261" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Menth Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1931778" y="799920"/>
+          <a:ext cx="266700" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1133475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Picture 262" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Menth Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3073700" y="3119527"/>
+          <a:ext cx="238125" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1143000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Picture 263" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Menth Eclat Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2740325" y="790395"/>
+          <a:ext cx="266700" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1152525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Picture 264" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Menth Eclat Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3054650" y="799920"/>
+          <a:ext cx="257175" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1143000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Picture 295" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Menth Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1931778" y="3129052"/>
+          <a:ext cx="266700" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1133475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Picture 296" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Menth Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2331828" y="3119527"/>
+          <a:ext cx="265622" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1143000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Picture 297" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Menth Eclat Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2740325" y="3119527"/>
+          <a:ext cx="266700" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1152525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Picture 298" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Menth Eclat Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3054650" y="3129052"/>
+          <a:ext cx="257175" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1171575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Picture 95"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4348971" y="904695"/>
+          <a:ext cx="523875" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1143000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Picture 126"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3538987" y="923745"/>
+          <a:ext cx="495300" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1171575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="Picture 95"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4348971" y="3233827"/>
+          <a:ext cx="523875" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1171575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Picture 303" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Menth Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2255628" y="828495"/>
+          <a:ext cx="238125" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1238250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="Picture 315"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5842240" y="923745"/>
+          <a:ext cx="514350" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1219200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Picture 94"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5081318" y="942795"/>
+          <a:ext cx="581025" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1123950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="Picture 126"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3577087" y="3233827"/>
+          <a:ext cx="495300" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1238250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="Picture 318"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5842240" y="3252877"/>
+          <a:ext cx="514350" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1219200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="Picture 94"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5081318" y="3271927"/>
+          <a:ext cx="581025" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1019175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="Picture 83"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6679002" y="999945"/>
+          <a:ext cx="504825" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1019175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="Picture 83"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6679002" y="3329077"/>
+          <a:ext cx="504825" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1019175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="Picture 83"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7533017" y="999945"/>
+          <a:ext cx="504825" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1019175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="Picture 83"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7533017" y="3329077"/>
+          <a:ext cx="504825" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1019175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="Picture 83"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8369779" y="999945"/>
+          <a:ext cx="504825" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1019175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="Picture 83"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8369779" y="3329077"/>
+          <a:ext cx="504825" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1209675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="Picture 87"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15821205" y="799920"/>
+          <a:ext cx="619125" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1209675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="Picture 87"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15821205" y="3129052"/>
+          <a:ext cx="619125" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1181100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="Obraz 95"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11785840" y="3243352"/>
+          <a:ext cx="609600" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="Obraz 94"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12557724" y="3271927"/>
+          <a:ext cx="666750" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -768,7 +7179,7 @@
   <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -804,97 +7215,97 @@
   <sheetData>
     <row r="1" spans="1:28" ht="14.95" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="36"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="38"/>
+      <c r="D3" s="36"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>1</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>2</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>3</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>4</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>5</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <v>6</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="14">
         <v>7</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="14">
         <v>8</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="14">
         <v>9</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="14">
         <v>10</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="14">
         <v>11</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="14">
         <v>12</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="14">
         <v>13</v>
       </c>
-      <c r="O4" s="15">
+      <c r="O4" s="14">
         <v>14</v>
       </c>
-      <c r="P4" s="15">
+      <c r="P4" s="14">
         <v>15</v>
       </c>
-      <c r="Q4" s="15">
+      <c r="Q4" s="14">
         <v>16</v>
       </c>
-      <c r="R4" s="15">
+      <c r="R4" s="14">
         <v>17</v>
       </c>
-      <c r="S4" s="15">
+      <c r="S4" s="14">
         <v>18</v>
       </c>
-      <c r="T4" s="15">
+      <c r="T4" s="14">
         <v>19</v>
       </c>
-      <c r="U4" s="15">
+      <c r="U4" s="14">
         <v>20</v>
       </c>
-      <c r="V4" s="15">
+      <c r="V4" s="14">
         <v>21</v>
       </c>
-      <c r="W4" s="15">
+      <c r="W4" s="14">
         <v>22</v>
       </c>
-      <c r="X4" s="15">
+      <c r="X4" s="14">
         <v>23</v>
       </c>
-      <c r="Y4" s="15">
+      <c r="Y4" s="14">
         <v>24</v>
       </c>
-      <c r="Z4" s="15">
+      <c r="Z4" s="14">
         <v>25</v>
       </c>
-      <c r="AA4" s="15">
+      <c r="AA4" s="14">
         <v>26</v>
       </c>
-      <c r="AB4" s="15">
+      <c r="AB4" s="14">
         <v>27</v>
       </c>
     </row>
@@ -902,318 +7313,484 @@
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:28" ht="187.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:28" ht="179.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="6"/>
+      <c r="B7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="T7" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="U7" s="39"/>
+      <c r="V7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="X7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB7" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="8" spans="1:28" ht="162.69999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="20"/>
+      <c r="B8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
     </row>
     <row r="9" spans="1:28" ht="120.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="20"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="16"/>
     </row>
     <row r="10" spans="1:28" ht="120.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="26"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="21"/>
     </row>
     <row r="11" spans="1:28" ht="120.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="26"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="21"/>
     </row>
     <row r="12" spans="1:28" ht="120.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="24"/>
     </row>
     <row r="13" spans="1:28" ht="120.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
-      <c r="AA13" s="31"/>
-      <c r="AB13" s="32"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="25"/>
     </row>
     <row r="14" spans="1:28" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1222,12 +7799,13 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="T7:U7"/>
-    <mergeCell ref="I8:J8"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
+    <mergeCell ref="D8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ExcelPln2/Input/Test17102016/BAT__test.xlsx
+++ b/ExcelPln2/Input/Test17102016/BAT__test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="245" yWindow="258" windowWidth="20119" windowHeight="7811" activeTab="1"/>
+    <workbookView xWindow="245" yWindow="258" windowWidth="20119" windowHeight="7811"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
   <si>
     <t>PLANOGRAM</t>
   </si>
@@ -219,18 +219,6 @@
     <t>Prince Rich Taste
  3594</t>
   </si>
-  <si>
-    <t>JIII Sobieski Czerwony 
-792</t>
-  </si>
-  <si>
-    <t>JIII Sobieski Niebieski
-793</t>
-  </si>
-  <si>
-    <t>JIII Sobieski Błękitny
-794</t>
-  </si>
 </sst>
 </file>
 
@@ -363,7 +351,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -438,17 +426,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -467,7 +444,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -590,9 +567,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="=D:\WINNT\SYSTEM32\COMMAND.COM" xfId="4"/>
@@ -694,210 +668,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1209675</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 71"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="486134" y="8015917"/>
-          <a:ext cx="542925" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1200150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 72"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1294681" y="8015917"/>
-          <a:ext cx="551372" cy="904875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>267599</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>573117</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>62900</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1468467</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 73"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4552052" y="8279380"/>
-          <a:ext cx="542925" cy="895350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -917,7 +687,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -985,7 +755,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1121,7 +891,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1189,7 +959,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1257,7 +1027,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1325,7 +1095,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1393,7 +1163,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1461,7 +1231,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1529,7 +1299,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1597,7 +1367,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1665,7 +1435,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1733,7 +1503,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1801,7 +1571,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1869,7 +1639,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1937,7 +1707,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2000,7 +1770,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2063,7 +1833,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2126,7 +1896,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2189,7 +1959,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2252,7 +2022,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2315,7 +2085,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2378,7 +2148,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2441,7 +2211,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2509,7 +2279,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2577,7 +2347,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2645,7 +2415,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2713,7 +2483,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2776,7 +2546,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2839,7 +2609,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2907,7 +2677,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2975,7 +2745,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3043,7 +2813,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3111,7 +2881,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3179,7 +2949,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3247,7 +3017,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3315,7 +3085,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3383,7 +3153,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3451,7 +3221,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3519,7 +3289,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3587,7 +3357,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3655,7 +3425,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3723,7 +3493,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3791,7 +3561,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3859,7 +3629,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3927,7 +3697,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3995,7 +3765,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4063,7 +3833,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4131,7 +3901,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4199,7 +3969,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4267,7 +4037,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4335,7 +4105,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4403,7 +4173,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4471,7 +4241,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4539,7 +4309,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4607,7 +4377,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4675,7 +4445,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4743,7 +4513,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4811,7 +4581,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4879,7 +4649,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4947,7 +4717,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5015,7 +4785,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5083,7 +4853,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5151,7 +4921,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5219,7 +4989,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5287,7 +5057,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5355,7 +5125,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5423,7 +5193,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5491,7 +5261,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5559,7 +5329,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5627,7 +5397,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5695,7 +5465,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5763,7 +5533,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5831,7 +5601,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5899,7 +5669,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5967,7 +5737,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6035,7 +5805,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6103,7 +5873,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6171,7 +5941,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6239,7 +6009,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6307,7 +6077,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6375,7 +6145,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6443,7 +6213,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6511,7 +6281,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6579,7 +6349,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6647,7 +6417,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6715,7 +6485,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6783,7 +6553,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7136,11 +6906,14 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -7178,8 +6951,8 @@
   </sheetPr>
   <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -7569,21 +7342,15 @@
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="39"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
@@ -7793,7 +7560,7 @@
       <c r="AA14" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -7802,7 +7569,6 @@
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
-    <mergeCell ref="D8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
